--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.5913468235995</v>
+        <v>0.388528</v>
       </c>
       <c r="H2">
-        <v>46.5913468235995</v>
+        <v>1.165584</v>
       </c>
       <c r="I2">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="J2">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N2">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q2">
-        <v>2419.799068758991</v>
+        <v>22.332019080896</v>
       </c>
       <c r="R2">
-        <v>2419.799068758991</v>
+        <v>200.988171728064</v>
       </c>
       <c r="S2">
-        <v>0.2292175400068002</v>
+        <v>0.00187232550282895</v>
       </c>
       <c r="T2">
-        <v>0.2292175400068002</v>
+        <v>0.001872325502828951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.5913468235995</v>
+        <v>0.388528</v>
       </c>
       <c r="H3">
-        <v>46.5913468235995</v>
+        <v>1.165584</v>
       </c>
       <c r="I3">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="J3">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N3">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P3">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q3">
-        <v>3000.421979565485</v>
+        <v>25.19232310507734</v>
       </c>
       <c r="R3">
-        <v>3000.421979565485</v>
+        <v>226.730907945696</v>
       </c>
       <c r="S3">
-        <v>0.2842175426950018</v>
+        <v>0.002112134547900934</v>
       </c>
       <c r="T3">
-        <v>0.2842175426950018</v>
+        <v>0.002112134547900935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>46.5913468235995</v>
+        <v>0.388528</v>
       </c>
       <c r="H4">
-        <v>46.5913468235995</v>
+        <v>1.165584</v>
       </c>
       <c r="I4">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="J4">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N4">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O4">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P4">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q4">
-        <v>3565.881012126275</v>
+        <v>33.14748260058666</v>
       </c>
       <c r="R4">
-        <v>3565.881012126275</v>
+        <v>298.32734340528</v>
       </c>
       <c r="S4">
-        <v>0.337781134024377</v>
+        <v>0.002779098334227612</v>
       </c>
       <c r="T4">
-        <v>0.337781134024377</v>
+        <v>0.002779098334227612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>46.5913468235995</v>
+        <v>0.388528</v>
       </c>
       <c r="H5">
-        <v>46.5913468235995</v>
+        <v>1.165584</v>
       </c>
       <c r="I5">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="J5">
-        <v>0.9846128168419293</v>
+        <v>0.007753939069753493</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="N5">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="O5">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="P5">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="Q5">
-        <v>1408.238517550322</v>
+        <v>11.81268978967467</v>
       </c>
       <c r="R5">
-        <v>1408.238517550322</v>
+        <v>106.314208107072</v>
       </c>
       <c r="S5">
-        <v>0.1333966001157502</v>
+        <v>0.0009903806847959959</v>
       </c>
       <c r="T5">
-        <v>0.1333966001157502</v>
+        <v>0.0009903806847959963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.728113198297939</v>
+        <v>48.97218033333333</v>
       </c>
       <c r="H6">
-        <v>0.728113198297939</v>
+        <v>146.916541</v>
       </c>
       <c r="I6">
-        <v>0.01538718315807068</v>
+        <v>0.9773486143023076</v>
       </c>
       <c r="J6">
-        <v>0.01538718315807068</v>
+        <v>0.9773486143023077</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="N6">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="O6">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="P6">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="Q6">
-        <v>37.81576965060066</v>
+        <v>2814.849034399271</v>
       </c>
       <c r="R6">
-        <v>37.81576965060066</v>
+        <v>25333.64130959344</v>
       </c>
       <c r="S6">
-        <v>0.003582131179685077</v>
+        <v>0.235998080362904</v>
       </c>
       <c r="T6">
-        <v>0.003582131179685077</v>
+        <v>0.2359980803629041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.728113198297939</v>
+        <v>48.97218033333333</v>
       </c>
       <c r="H7">
-        <v>0.728113198297939</v>
+        <v>146.916541</v>
       </c>
       <c r="I7">
-        <v>0.01538718315807068</v>
+        <v>0.9773486143023076</v>
       </c>
       <c r="J7">
-        <v>0.01538718315807068</v>
+        <v>0.9773486143023077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="N7">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="P7">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="Q7">
-        <v>46.88954049892992</v>
+        <v>3175.377296147118</v>
       </c>
       <c r="R7">
-        <v>46.88954049892992</v>
+        <v>28578.39566532405</v>
       </c>
       <c r="S7">
-        <v>0.004441651897455301</v>
+        <v>0.2662249154966129</v>
       </c>
       <c r="T7">
-        <v>0.004441651897455301</v>
+        <v>0.266224915496613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.728113198297939</v>
+        <v>48.97218033333333</v>
       </c>
       <c r="H8">
-        <v>0.728113198297939</v>
+        <v>146.916541</v>
       </c>
       <c r="I8">
-        <v>0.01538718315807068</v>
+        <v>0.9773486143023076</v>
       </c>
       <c r="J8">
-        <v>0.01538718315807068</v>
+        <v>0.9773486143023077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="N8">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="O8">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="P8">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="Q8">
-        <v>55.72633558586119</v>
+        <v>4178.088826318719</v>
       </c>
       <c r="R8">
-        <v>55.72633558586119</v>
+        <v>37602.79943686847</v>
       </c>
       <c r="S8">
-        <v>0.005278724883192659</v>
+        <v>0.3502926553243547</v>
       </c>
       <c r="T8">
-        <v>0.005278724883192659</v>
+        <v>0.3502926553243548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>48.97218033333333</v>
+      </c>
+      <c r="H9">
+        <v>146.916541</v>
+      </c>
+      <c r="I9">
+        <v>0.9773486143023076</v>
+      </c>
+      <c r="J9">
+        <v>0.9773486143023077</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.40370266666666</v>
+      </c>
+      <c r="N9">
+        <v>91.211108</v>
+      </c>
+      <c r="O9">
+        <v>0.1277261371138787</v>
+      </c>
+      <c r="P9">
+        <v>0.1277261371138788</v>
+      </c>
+      <c r="Q9">
+        <v>1488.935609793047</v>
+      </c>
+      <c r="R9">
+        <v>13400.42048813743</v>
+      </c>
+      <c r="S9">
+        <v>0.1248329631184359</v>
+      </c>
+      <c r="T9">
+        <v>0.124832963118436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01043733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.031312</v>
+      </c>
+      <c r="I10">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="J10">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>57.478532</v>
+      </c>
+      <c r="N10">
+        <v>172.435596</v>
+      </c>
+      <c r="O10">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="P10">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="Q10">
+        <v>0.5999225979946666</v>
+      </c>
+      <c r="R10">
+        <v>5.399303381952</v>
+      </c>
+      <c r="S10">
+        <v>5.029775301014778E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.02977530101478E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01043733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.031312</v>
+      </c>
+      <c r="I11">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="J11">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>64.84043133333334</v>
+      </c>
+      <c r="N11">
+        <v>194.521294</v>
+      </c>
+      <c r="O11">
+        <v>0.272395040623924</v>
+      </c>
+      <c r="P11">
+        <v>0.2723950406239241</v>
+      </c>
+      <c r="Q11">
+        <v>0.6767611953031112</v>
+      </c>
+      <c r="R11">
+        <v>6.090850757728</v>
+      </c>
+      <c r="S11">
+        <v>5.673993205455295E-05</v>
+      </c>
+      <c r="T11">
+        <v>5.673993205455297E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01043733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.031312</v>
+      </c>
+      <c r="I12">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="J12">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>85.31555666666667</v>
+      </c>
+      <c r="N12">
+        <v>255.94667</v>
+      </c>
+      <c r="O12">
+        <v>0.3584111648579104</v>
+      </c>
+      <c r="P12">
+        <v>0.3584111648579105</v>
+      </c>
+      <c r="Q12">
+        <v>0.8904669034488889</v>
+      </c>
+      <c r="R12">
+        <v>8.014202131039999</v>
+      </c>
+      <c r="S12">
+        <v>7.465710497170086E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.465710497170087E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01043733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.031312</v>
+      </c>
+      <c r="I13">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="J13">
+        <v>0.0002083001655411548</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.40370266666666</v>
+      </c>
+      <c r="N13">
+        <v>91.211108</v>
+      </c>
+      <c r="O13">
+        <v>0.1277261371138787</v>
+      </c>
+      <c r="P13">
+        <v>0.1277261371138788</v>
+      </c>
+      <c r="Q13">
+        <v>0.3173335792995555</v>
+      </c>
+      <c r="R13">
+        <v>2.856002213696</v>
+      </c>
+      <c r="S13">
+        <v>2.660537550475317E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.660537550475318E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7360316666666668</v>
+      </c>
+      <c r="H14">
+        <v>2.208095</v>
+      </c>
+      <c r="I14">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="J14">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>57.478532</v>
+      </c>
+      <c r="N14">
+        <v>172.435596</v>
+      </c>
+      <c r="O14">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="P14">
+        <v>0.2414676574042868</v>
+      </c>
+      <c r="Q14">
+        <v>42.30601970551334</v>
+      </c>
+      <c r="R14">
+        <v>380.75417734962</v>
+      </c>
+      <c r="S14">
+        <v>0.003546953785543635</v>
+      </c>
+      <c r="T14">
+        <v>0.003546953785543636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.728113198297939</v>
-      </c>
-      <c r="H9">
-        <v>0.728113198297939</v>
-      </c>
-      <c r="I9">
-        <v>0.01538718315807068</v>
-      </c>
-      <c r="J9">
-        <v>0.01538718315807068</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>30.2253232318457</v>
-      </c>
-      <c r="N9">
-        <v>30.2253232318457</v>
-      </c>
-      <c r="O9">
-        <v>0.1354812753134879</v>
-      </c>
-      <c r="P9">
-        <v>0.1354812753134879</v>
-      </c>
-      <c r="Q9">
-        <v>22.00745676792817</v>
-      </c>
-      <c r="R9">
-        <v>22.00745676792817</v>
-      </c>
-      <c r="S9">
-        <v>0.002084675197737637</v>
-      </c>
-      <c r="T9">
-        <v>0.002084675197737637</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7360316666666668</v>
+      </c>
+      <c r="H15">
+        <v>2.208095</v>
+      </c>
+      <c r="I15">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="J15">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>64.84043133333334</v>
+      </c>
+      <c r="N15">
+        <v>194.521294</v>
+      </c>
+      <c r="O15">
+        <v>0.272395040623924</v>
+      </c>
+      <c r="P15">
+        <v>0.2723950406239241</v>
+      </c>
+      <c r="Q15">
+        <v>47.7246107416589</v>
+      </c>
+      <c r="R15">
+        <v>429.5214966749301</v>
+      </c>
+      <c r="S15">
+        <v>0.004001250647355586</v>
+      </c>
+      <c r="T15">
+        <v>0.004001250647355588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7360316666666668</v>
+      </c>
+      <c r="H16">
+        <v>2.208095</v>
+      </c>
+      <c r="I16">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="J16">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>85.31555666666667</v>
+      </c>
+      <c r="N16">
+        <v>255.94667</v>
+      </c>
+      <c r="O16">
+        <v>0.3584111648579104</v>
+      </c>
+      <c r="P16">
+        <v>0.3584111648579105</v>
+      </c>
+      <c r="Q16">
+        <v>62.79495136596112</v>
+      </c>
+      <c r="R16">
+        <v>565.15456229365</v>
+      </c>
+      <c r="S16">
+        <v>0.005264754094356407</v>
+      </c>
+      <c r="T16">
+        <v>0.005264754094356409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7360316666666668</v>
+      </c>
+      <c r="H17">
+        <v>2.208095</v>
+      </c>
+      <c r="I17">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="J17">
+        <v>0.01468914646239768</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.40370266666666</v>
+      </c>
+      <c r="N17">
+        <v>91.211108</v>
+      </c>
+      <c r="O17">
+        <v>0.1277261371138787</v>
+      </c>
+      <c r="P17">
+        <v>0.1277261371138788</v>
+      </c>
+      <c r="Q17">
+        <v>22.37808794658444</v>
+      </c>
+      <c r="R17">
+        <v>201.40279151926</v>
+      </c>
+      <c r="S17">
+        <v>0.001876187935142053</v>
+      </c>
+      <c r="T17">
+        <v>0.001876187935142054</v>
       </c>
     </row>
   </sheetData>
